--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB91EDF-3883-4E98-9231-2D4429C5953C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CA822F-D77C-45FE-8FFA-A57081AB450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37230" yWindow="5440" windowWidth="15950" windowHeight="15430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22320" yWindow="2100" windowWidth="22300" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -56,24 +56,12 @@
     <t>Routing Number</t>
   </si>
   <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Bob Smith</t>
-  </si>
-  <si>
     <t>Account Number</t>
   </si>
   <si>
     <t>Vendor Name</t>
   </si>
   <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>345678901</t>
-  </si>
-  <si>
     <t>Vendor Type</t>
   </si>
   <si>
@@ -86,12 +74,6 @@
     <t>Customer ID</t>
   </si>
   <si>
-    <t>New Pig</t>
-  </si>
-  <si>
-    <t>987654321</t>
-  </si>
-  <si>
     <t>Account Type</t>
   </si>
   <si>
@@ -99,6 +81,30 @@
   </si>
   <si>
     <t>savings</t>
+  </si>
+  <si>
+    <t>122000247</t>
+  </si>
+  <si>
+    <t>122235821</t>
+  </si>
+  <si>
+    <t>CohnReznick</t>
+  </si>
+  <si>
+    <t>Cohn Reznick</t>
+  </si>
+  <si>
+    <t>021300077</t>
+  </si>
+  <si>
+    <t>256074974</t>
+  </si>
+  <si>
+    <t>Della-Volle</t>
+  </si>
+  <si>
+    <t>Joe Della-Volle</t>
   </si>
 </sst>
 </file>
@@ -439,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,22 +465,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -485,16 +491,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
-        <v>5789232</v>
+        <v>8251626241</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -504,60 +510,57 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>234567890</v>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="4">
-        <v>126987302658</v>
+        <v>258239204328</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4">
-        <v>498708410</v>
+        <v>328612942990</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>762357</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4">
-        <v>258963147</v>
+        <v>7061015785</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CA822F-D77C-45FE-8FFA-A57081AB450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82810C5A-1D99-43DE-AC51-0E989432D58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22320" yWindow="2100" windowWidth="22300" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37870" yWindow="310" windowWidth="37730" windowHeight="20150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -105,13 +105,106 @@
   </si>
   <si>
     <t>Joe Della-Volle</t>
+  </si>
+  <si>
+    <t>Clean Harbors</t>
+  </si>
+  <si>
+    <t>071000013</t>
+  </si>
+  <si>
+    <t>AECOM</t>
+  </si>
+  <si>
+    <t>AECOM Inc.</t>
+  </si>
+  <si>
+    <t>071000039</t>
+  </si>
+  <si>
+    <t>Intergulf Corp</t>
+  </si>
+  <si>
+    <t>Intergulf Corporation</t>
+  </si>
+  <si>
+    <t>114000093</t>
+  </si>
+  <si>
+    <t>The Shipley Group</t>
+  </si>
+  <si>
+    <t>Pace Analytical</t>
+  </si>
+  <si>
+    <t>Pace Analytical Services, LLC</t>
+  </si>
+  <si>
+    <t>075000019</t>
+  </si>
+  <si>
+    <t>632688081</t>
+  </si>
+  <si>
+    <t>Crystal Clean</t>
+  </si>
+  <si>
+    <t>Heritage-Crystal Clean, LLC</t>
+  </si>
+  <si>
+    <t>8666314757</t>
+  </si>
+  <si>
+    <t>MATHESON TRI-GAS</t>
+  </si>
+  <si>
+    <t>MATHESON TRI-GAS INC.</t>
+  </si>
+  <si>
+    <t>111000025</t>
+  </si>
+  <si>
+    <t>0187161714</t>
+  </si>
+  <si>
+    <t>EU798</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HA43817</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HAZTRA</t>
+  </si>
+  <si>
+    <t>055003201</t>
+  </si>
+  <si>
+    <t>5570027048</t>
+  </si>
+  <si>
+    <t>054000030</t>
+  </si>
+  <si>
+    <t>Czysz 2</t>
+  </si>
+  <si>
+    <t>Tim and Jodelle</t>
+  </si>
+  <si>
+    <t>3640 Rockefeller Ct.</t>
+  </si>
+  <si>
+    <t>Rent Payments</t>
+  </si>
+  <si>
+    <t>HazTrain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +225,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,15 +254,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,43 +549,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" customWidth="1"/>
     <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -493,7 +599,7 @@
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>8251626241</v>
       </c>
       <c r="E2" t="s">
@@ -513,7 +619,7 @@
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>258239204328</v>
       </c>
       <c r="E3" t="s">
@@ -533,7 +639,7 @@
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>328612942990</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -553,7 +659,7 @@
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>7061015785</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -563,11 +669,219 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2">
+        <v>513339355</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5800937020</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <v>502151987</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="4"/>
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2">
+        <v>124000054</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21128103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>367841</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1576393308</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82810C5A-1D99-43DE-AC51-0E989432D58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7469A1-C4D7-4E00-82A9-D647BEE1DE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37870" yWindow="310" windowWidth="37730" windowHeight="20150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38170" yWindow="1010" windowWidth="37070" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -191,13 +191,49 @@
     <t>Tim and Jodelle</t>
   </si>
   <si>
-    <t>3640 Rockefeller Ct.</t>
-  </si>
-  <si>
-    <t>Rent Payments</t>
-  </si>
-  <si>
     <t>HazTrain</t>
+  </si>
+  <si>
+    <t>Spheeris</t>
+  </si>
+  <si>
+    <t>Paula Spheeris</t>
+  </si>
+  <si>
+    <t>McCrea</t>
+  </si>
+  <si>
+    <t>Joshua A McCrea</t>
+  </si>
+  <si>
+    <t>Sonnier, Eddie</t>
+  </si>
+  <si>
+    <t>Eddie Sonnier</t>
+  </si>
+  <si>
+    <t>313085288</t>
+  </si>
+  <si>
+    <t>97211363099</t>
+  </si>
+  <si>
+    <t>263178070</t>
+  </si>
+  <si>
+    <t>0005919111</t>
+  </si>
+  <si>
+    <t>111000614</t>
+  </si>
+  <si>
+    <t>511197795</t>
+  </si>
+  <si>
+    <t>3460 Rockefeller Ct.</t>
+  </si>
+  <si>
+    <t>Tim Czysz Rent</t>
   </si>
 </sst>
 </file>
@@ -254,21 +290,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +583,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,25 +598,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -605,6 +636,7 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="2"/>
       <c r="G2" t="s">
         <v>13</v>
       </c>
@@ -625,6 +657,7 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="2"/>
       <c r="G3" t="s">
         <v>14</v>
       </c>
@@ -645,6 +678,7 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
@@ -665,15 +699,16 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -685,7 +720,7 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G6" t="s">
@@ -708,6 +743,7 @@
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
@@ -751,6 +787,7 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
+      <c r="F9" s="2"/>
       <c r="G9" t="s">
         <v>13</v>
       </c>
@@ -771,6 +808,7 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
+      <c r="F10" s="2"/>
       <c r="G10" t="s">
         <v>13</v>
       </c>
@@ -791,7 +829,7 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>367841</v>
       </c>
       <c r="G11" t="s">
@@ -814,7 +852,7 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G12" t="s">
@@ -823,22 +861,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="2">
         <v>1576393308</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
-        <v>53</v>
+      <c r="F13" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -860,27 +898,83 @@
       <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
     </row>
   </sheetData>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7469A1-C4D7-4E00-82A9-D647BEE1DE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7D1CAC-8E10-4D08-9C7B-34DC3E01531C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38170" yWindow="1010" windowWidth="37070" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -234,6 +234,30 @@
   </si>
   <si>
     <t>Tim Czysz Rent</t>
+  </si>
+  <si>
+    <t>Republic</t>
+  </si>
+  <si>
+    <t>Republic Services</t>
+  </si>
+  <si>
+    <t>121000248</t>
+  </si>
+  <si>
+    <t>New Pig</t>
+  </si>
+  <si>
+    <t>362198604</t>
+  </si>
+  <si>
+    <t>5053406</t>
+  </si>
+  <si>
+    <t>613027</t>
+  </si>
+  <si>
+    <t>031301422</t>
   </si>
 </sst>
 </file>
@@ -580,24 +604,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.53515625" customWidth="1"/>
+    <col min="5" max="5" width="11.3828125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -620,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -641,7 +665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -662,7 +686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -683,7 +707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -704,7 +728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -727,7 +751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -748,7 +772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -771,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -792,7 +816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -813,7 +837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -836,7 +860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -859,7 +883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -882,7 +906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -905,7 +929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -928,7 +952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -951,7 +975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -974,8 +998,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C18" s="2"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4140909680</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7D1CAC-8E10-4D08-9C7B-34DC3E01531C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D116660E-5F25-4BC1-B637-2BCB140FAA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="1280" windowWidth="29890" windowHeight="19990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="106">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -122,149 +122,245 @@
     <t>071000039</t>
   </si>
   <si>
+    <t>Intergulf Corporation</t>
+  </si>
+  <si>
+    <t>114000093</t>
+  </si>
+  <si>
+    <t>The Shipley Group</t>
+  </si>
+  <si>
+    <t>Pace Analytical</t>
+  </si>
+  <si>
+    <t>Pace Analytical Services, LLC</t>
+  </si>
+  <si>
+    <t>075000019</t>
+  </si>
+  <si>
+    <t>632688081</t>
+  </si>
+  <si>
+    <t>Crystal Clean</t>
+  </si>
+  <si>
+    <t>Heritage-Crystal Clean, LLC</t>
+  </si>
+  <si>
+    <t>8666314757</t>
+  </si>
+  <si>
+    <t>MATHESON TRI-GAS</t>
+  </si>
+  <si>
+    <t>MATHESON TRI-GAS INC.</t>
+  </si>
+  <si>
+    <t>111000025</t>
+  </si>
+  <si>
+    <t>0187161714</t>
+  </si>
+  <si>
+    <t>EU798</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HA43817</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HAZTRA</t>
+  </si>
+  <si>
+    <t>055003201</t>
+  </si>
+  <si>
+    <t>5570027048</t>
+  </si>
+  <si>
+    <t>054000030</t>
+  </si>
+  <si>
+    <t>Czysz 2</t>
+  </si>
+  <si>
+    <t>Tim and Jodelle</t>
+  </si>
+  <si>
+    <t>HazTrain</t>
+  </si>
+  <si>
+    <t>Spheeris</t>
+  </si>
+  <si>
+    <t>Paula Spheeris</t>
+  </si>
+  <si>
+    <t>McCrea</t>
+  </si>
+  <si>
+    <t>Joshua A McCrea</t>
+  </si>
+  <si>
+    <t>Sonnier, Eddie</t>
+  </si>
+  <si>
+    <t>Eddie Sonnier</t>
+  </si>
+  <si>
+    <t>313085288</t>
+  </si>
+  <si>
+    <t>97211363099</t>
+  </si>
+  <si>
+    <t>263178070</t>
+  </si>
+  <si>
+    <t>0005919111</t>
+  </si>
+  <si>
+    <t>111000614</t>
+  </si>
+  <si>
+    <t>511197795</t>
+  </si>
+  <si>
+    <t>3460 Rockefeller Ct.</t>
+  </si>
+  <si>
+    <t>Tim Czysz Rent</t>
+  </si>
+  <si>
+    <t>Republic</t>
+  </si>
+  <si>
+    <t>Republic Services</t>
+  </si>
+  <si>
+    <t>121000248</t>
+  </si>
+  <si>
+    <t>New Pig</t>
+  </si>
+  <si>
+    <t>362198604</t>
+  </si>
+  <si>
+    <t>5053406</t>
+  </si>
+  <si>
+    <t>613027</t>
+  </si>
+  <si>
+    <t>031301422</t>
+  </si>
+  <si>
+    <t>Instructure</t>
+  </si>
+  <si>
+    <t>122400724</t>
+  </si>
+  <si>
+    <t>501014797798</t>
+  </si>
+  <si>
+    <t>CareFirst BlueCross</t>
+  </si>
+  <si>
+    <t>CareFirst BlueCross BlueShield</t>
+  </si>
+  <si>
+    <t>4697197994</t>
+  </si>
+  <si>
+    <t>Republic Services #855</t>
+  </si>
+  <si>
+    <t>4140909680</t>
+  </si>
+  <si>
+    <t>SGS</t>
+  </si>
+  <si>
+    <t>SGS North America, Inc</t>
+  </si>
+  <si>
+    <t>031100209</t>
+  </si>
+  <si>
+    <t>38805189</t>
+  </si>
+  <si>
+    <t>HYG Financial Services Inc</t>
+  </si>
+  <si>
+    <t>4175553981</t>
+  </si>
+  <si>
+    <t>Fit For Everybody</t>
+  </si>
+  <si>
+    <t>121140399</t>
+  </si>
+  <si>
+    <t>3303548019</t>
+  </si>
+  <si>
+    <t>ID Discovery, Inc</t>
+  </si>
+  <si>
+    <t>031309123</t>
+  </si>
+  <si>
+    <t>1390024725665</t>
+  </si>
+  <si>
+    <t>Materials Handling</t>
+  </si>
+  <si>
+    <t>Graves, S</t>
+  </si>
+  <si>
+    <t>ID Discovery</t>
+  </si>
+  <si>
     <t>Intergulf Corp</t>
   </si>
   <si>
-    <t>Intergulf Corporation</t>
-  </si>
-  <si>
-    <t>114000093</t>
-  </si>
-  <si>
-    <t>The Shipley Group</t>
-  </si>
-  <si>
-    <t>Pace Analytical</t>
-  </si>
-  <si>
-    <t>Pace Analytical Services, LLC</t>
-  </si>
-  <si>
-    <t>075000019</t>
-  </si>
-  <si>
-    <t>632688081</t>
-  </si>
-  <si>
-    <t>Crystal Clean</t>
-  </si>
-  <si>
-    <t>Heritage-Crystal Clean, LLC</t>
-  </si>
-  <si>
-    <t>8666314757</t>
-  </si>
-  <si>
-    <t>MATHESON TRI-GAS</t>
-  </si>
-  <si>
-    <t>MATHESON TRI-GAS INC.</t>
-  </si>
-  <si>
-    <t>111000025</t>
-  </si>
-  <si>
-    <t>0187161714</t>
-  </si>
-  <si>
-    <t>EU798</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HA43817</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HAZTRA</t>
-  </si>
-  <si>
-    <t>055003201</t>
-  </si>
-  <si>
-    <t>5570027048</t>
-  </si>
-  <si>
-    <t>054000030</t>
-  </si>
-  <si>
-    <t>Czysz 2</t>
-  </si>
-  <si>
-    <t>Tim and Jodelle</t>
-  </si>
-  <si>
-    <t>HazTrain</t>
-  </si>
-  <si>
-    <t>Spheeris</t>
-  </si>
-  <si>
-    <t>Paula Spheeris</t>
-  </si>
-  <si>
-    <t>McCrea</t>
-  </si>
-  <si>
-    <t>Joshua A McCrea</t>
-  </si>
-  <si>
-    <t>Sonnier, Eddie</t>
-  </si>
-  <si>
-    <t>Eddie Sonnier</t>
-  </si>
-  <si>
-    <t>313085288</t>
-  </si>
-  <si>
-    <t>97211363099</t>
-  </si>
-  <si>
-    <t>263178070</t>
-  </si>
-  <si>
-    <t>0005919111</t>
-  </si>
-  <si>
-    <t>111000614</t>
-  </si>
-  <si>
-    <t>511197795</t>
-  </si>
-  <si>
-    <t>3460 Rockefeller Ct.</t>
-  </si>
-  <si>
-    <t>Tim Czysz Rent</t>
-  </si>
-  <si>
-    <t>Republic</t>
-  </si>
-  <si>
-    <t>Republic Services</t>
-  </si>
-  <si>
-    <t>121000248</t>
-  </si>
-  <si>
-    <t>New Pig</t>
-  </si>
-  <si>
-    <t>362198604</t>
-  </si>
-  <si>
-    <t>5053406</t>
-  </si>
-  <si>
-    <t>613027</t>
-  </si>
-  <si>
-    <t>031301422</t>
+    <t>Shelby Graves</t>
+  </si>
+  <si>
+    <t>055002707</t>
+  </si>
+  <si>
+    <t>003748067</t>
+  </si>
+  <si>
+    <t>Czysz</t>
+  </si>
+  <si>
+    <t>Tim expenses</t>
+  </si>
+  <si>
+    <t>Tannenbaum</t>
+  </si>
+  <si>
+    <t>Jordan E. Tannenbaum</t>
+  </si>
+  <si>
+    <t>051404260</t>
+  </si>
+  <si>
+    <t>1470014966854</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +389,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,7 +404,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -310,11 +412,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -322,6 +433,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -604,24 +736,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.53515625" customWidth="1"/>
-    <col min="5" max="5" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -644,7 +776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -665,7 +797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -686,7 +818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -707,7 +839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -728,7 +860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -745,13 +877,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -772,15 +904,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>502151987</v>
@@ -789,18 +921,18 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>31</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>124000054</v>
@@ -816,18 +948,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -837,18 +969,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -860,38 +992,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2">
         <v>1576393308</v>
@@ -900,113 +1032,113 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
       <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
       <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D18" s="2">
         <v>4140909680</v>
@@ -1015,32 +1147,248 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="D19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="B20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D116660E-5F25-4BC1-B637-2BCB140FAA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D781DE6D-202B-400B-8FCF-3B59950B3460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="1280" windowWidth="29890" windowHeight="19990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="1600" windowWidth="34040" windowHeight="19070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -354,6 +354,27 @@
   </si>
   <si>
     <t>1470014966854</t>
+  </si>
+  <si>
+    <t>Ryan, Michele</t>
+  </si>
+  <si>
+    <t>Michele Ryan</t>
+  </si>
+  <si>
+    <t>923060800</t>
+  </si>
+  <si>
+    <t>Nissley, Pete</t>
+  </si>
+  <si>
+    <t>Pete Nissley</t>
+  </si>
+  <si>
+    <t>312270463</t>
+  </si>
+  <si>
+    <t>0333040692</t>
   </si>
 </sst>
 </file>
@@ -736,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1392,6 +1413,52 @@
         <v>13</v>
       </c>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="2">
+        <v>322271627</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D781DE6D-202B-400B-8FCF-3B59950B3460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C39FC0A-5E59-4BF7-876E-A42DE11782B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1600" windowWidth="34040" windowHeight="19070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="130">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -375,6 +375,57 @@
   </si>
   <si>
     <t>0333040692</t>
+  </si>
+  <si>
+    <t>021000021</t>
+  </si>
+  <si>
+    <t>999176597</t>
+  </si>
+  <si>
+    <t>Dr. Covella</t>
+  </si>
+  <si>
+    <t>Aramsco</t>
+  </si>
+  <si>
+    <t>Bhate</t>
+  </si>
+  <si>
+    <t>Dalmation</t>
+  </si>
+  <si>
+    <t>Meridian Analytical</t>
+  </si>
+  <si>
+    <t>072000326</t>
+  </si>
+  <si>
+    <t>897980956</t>
+  </si>
+  <si>
+    <t>2014154951691</t>
+  </si>
+  <si>
+    <t>062000019</t>
+  </si>
+  <si>
+    <t>0300772631</t>
+  </si>
+  <si>
+    <t>101100579</t>
+  </si>
+  <si>
+    <t>74718533</t>
+  </si>
+  <si>
+    <t>107001232</t>
+  </si>
+  <si>
+    <t>3100010939</t>
+  </si>
+  <si>
+    <t>Alliance Technical Group</t>
   </si>
 </sst>
 </file>
@@ -446,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -476,6 +527,37 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:G31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1414,7 +1496,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="21" t="s">
         <v>106</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1458,6 +1540,156 @@
       <c r="G31" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C39FC0A-5E59-4BF7-876E-A42DE11782B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D72D89-65D6-4550-9CE7-AB8FF78C3677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1270" yWindow="2180" windowWidth="34120" windowHeight="18550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="145">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -383,9 +383,6 @@
     <t>999176597</t>
   </si>
   <si>
-    <t>Dr. Covella</t>
-  </si>
-  <si>
     <t>Aramsco</t>
   </si>
   <si>
@@ -426,6 +423,54 @@
   </si>
   <si>
     <t>Alliance Technical Group</t>
+  </si>
+  <si>
+    <t>Dr. Covello</t>
+  </si>
+  <si>
+    <t>Braddock</t>
+  </si>
+  <si>
+    <t>Rachel Braddock</t>
+  </si>
+  <si>
+    <t>313084674</t>
+  </si>
+  <si>
+    <t>14983102</t>
+  </si>
+  <si>
+    <t>Alliance Tech Group</t>
+  </si>
+  <si>
+    <t>C. Nissley Env</t>
+  </si>
+  <si>
+    <t>C. Nissley Env Consultants, Inc</t>
+  </si>
+  <si>
+    <t>dr. Covella</t>
+  </si>
+  <si>
+    <t>Dr. Vincent Covello</t>
+  </si>
+  <si>
+    <t>072000805</t>
+  </si>
+  <si>
+    <t>Eventure HR</t>
+  </si>
+  <si>
+    <t>Eventure HR, LLC</t>
+  </si>
+  <si>
+    <t>375026823349</t>
+  </si>
+  <si>
+    <t>James T Warring Sons</t>
+  </si>
+  <si>
+    <t>James T Warring Sons Inc</t>
   </si>
 </sst>
 </file>
@@ -497,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -527,31 +572,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -839,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1496,7 +1516,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="21" t="s">
+      <c r="A30" t="s">
         <v>106</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1543,10 +1563,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>115</v>
+        <v>129</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>113</v>
@@ -1562,134 +1582,233 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="18" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="E33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
+      <c r="E34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C35" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="13">
+        <v>897980956</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="D40" s="13">
+        <v>999353940</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="13">
+        <v>999176597</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="13">
+        <v>5300389989</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D72D89-65D6-4550-9CE7-AB8FF78C3677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB570A4-97A4-4325-B477-2E975A257985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1270" yWindow="2180" windowWidth="34120" windowHeight="18550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="1000" windowWidth="31620" windowHeight="19510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1778,7 +1778,7 @@
         <v>141</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>142</v>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB570A4-97A4-4325-B477-2E975A257985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA194BB3-BCB3-4712-9A3B-BEAEA3EAB6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1000" windowWidth="31620" windowHeight="19510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="1360" windowWidth="35950" windowHeight="19750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="150">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -471,13 +471,28 @@
   </si>
   <si>
     <t>James T Warring Sons Inc</t>
+  </si>
+  <si>
+    <t>BIOLARGO</t>
+  </si>
+  <si>
+    <t>BioLargo</t>
+  </si>
+  <si>
+    <t>064000020</t>
+  </si>
+  <si>
+    <t>444020289001</t>
+  </si>
+  <si>
+    <t>DARR EQUIPMENT CO.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,13 +527,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -542,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -578,6 +606,21 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1810,6 +1853,47 @@
         <v>13</v>
       </c>
     </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="17">
+        <v>711413526</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA194BB3-BCB3-4712-9A3B-BEAEA3EAB6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA635BC-8927-41EE-8946-DAA7BBA66C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1360" windowWidth="35950" windowHeight="19750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41530" yWindow="1670" windowWidth="29690" windowHeight="17510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="170">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -486,6 +486,66 @@
   </si>
   <si>
     <t>DARR EQUIPMENT CO.</t>
+  </si>
+  <si>
+    <t>999353940</t>
+  </si>
+  <si>
+    <t>307074535</t>
+  </si>
+  <si>
+    <t>Porteck, Kevin</t>
+  </si>
+  <si>
+    <t>Kevin Porteck</t>
+  </si>
+  <si>
+    <t>41243637</t>
+  </si>
+  <si>
+    <t>Harris, Tom</t>
+  </si>
+  <si>
+    <t>Tom Harris</t>
+  </si>
+  <si>
+    <t>055003308</t>
+  </si>
+  <si>
+    <t>0005256334307</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>Eastern Lift Truck Co., Inc.</t>
+  </si>
+  <si>
+    <t>036076150</t>
+  </si>
+  <si>
+    <t>6230285804</t>
+  </si>
+  <si>
+    <t>GFL ENVIRONMENTAL</t>
+  </si>
+  <si>
+    <t>GFL Plant Services LP</t>
+  </si>
+  <si>
+    <t>525193087</t>
+  </si>
+  <si>
+    <t>Lighting Resources</t>
+  </si>
+  <si>
+    <t>Lighting Resources, LLC</t>
+  </si>
+  <si>
+    <t>122243774</t>
+  </si>
+  <si>
+    <t>2030623254</t>
   </si>
 </sst>
 </file>
@@ -535,18 +595,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -613,15 +667,13 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1781,10 +1833,10 @@
         <v>136</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="13">
-        <v>999353940</v>
+        <v>151</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -1841,7 +1893,7 @@
         <v>144</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D43" s="13">
         <v>5300389989</v>
@@ -1874,27 +1926,132 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>149</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="15">
         <v>711413526</v>
       </c>
-      <c r="E45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18" t="s">
+      <c r="E45" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="15">
+        <v>314089681</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="18" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA194BB3-BCB3-4712-9A3B-BEAEA3EAB6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB59533-B7BC-49BB-9A62-C9730AC3BCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1360" windowWidth="35950" windowHeight="19750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="153">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -486,6 +486,15 @@
   </si>
   <si>
     <t>DARR EQUIPMENT CO.</t>
+  </si>
+  <si>
+    <t>Suggs, Mark</t>
+  </si>
+  <si>
+    <t>Mark Suggs</t>
+  </si>
+  <si>
+    <t>478018771</t>
   </si>
 </sst>
 </file>
@@ -570,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -608,19 +617,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1843,7 +1849,7 @@
       <c r="C43" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="14">
         <v>5300389989</v>
       </c>
       <c r="E43" t="s">
@@ -1854,16 +1860,16 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="17" t="s">
         <v>145</v>
       </c>
       <c r="B44" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>148</v>
       </c>
       <c r="E44" t="s">
@@ -1874,23 +1880,46 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="14">
         <v>711413526</v>
       </c>
-      <c r="E45" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18" t="s">
+      <c r="E45" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="14">
+        <v>102001017</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="16" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB59533-B7BC-49BB-9A62-C9730AC3BCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E68FDD-CE99-4045-B385-EB9045138A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31550" yWindow="2650" windowWidth="27570" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="175">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -495,6 +495,72 @@
   </si>
   <si>
     <t>478018771</t>
+  </si>
+  <si>
+    <t>Porteck, Kevin</t>
+  </si>
+  <si>
+    <t>Kevin Porteck</t>
+  </si>
+  <si>
+    <t>41243637</t>
+  </si>
+  <si>
+    <t>Harris, Tom</t>
+  </si>
+  <si>
+    <t>Tom Harris</t>
+  </si>
+  <si>
+    <t>055003308</t>
+  </si>
+  <si>
+    <t>0005256334307</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>Eastern Lift Truck Co., Inc.</t>
+  </si>
+  <si>
+    <t>036076150</t>
+  </si>
+  <si>
+    <t>6230285804</t>
+  </si>
+  <si>
+    <t>GFL ENVIRONMENTAL</t>
+  </si>
+  <si>
+    <t>GFL Plant Services LP</t>
+  </si>
+  <si>
+    <t>525193087</t>
+  </si>
+  <si>
+    <t>Lighting Resources</t>
+  </si>
+  <si>
+    <t>Lighting Resources, LLC</t>
+  </si>
+  <si>
+    <t>122243774</t>
+  </si>
+  <si>
+    <t>2030623254</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>Peter Robinson</t>
+  </si>
+  <si>
+    <t>121000358</t>
+  </si>
+  <si>
+    <t>000528201557</t>
   </si>
 </sst>
 </file>
@@ -579,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -627,6 +693,13 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="D33" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1923,6 +1996,130 @@
         <v>13</v>
       </c>
     </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="14">
+        <v>314089681</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E68FDD-CE99-4045-B385-EB9045138A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105A4402-E86A-4E04-899F-D13657F20AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31550" yWindow="2650" windowWidth="27570" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32640" yWindow="2880" windowWidth="31580" windowHeight="19470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="180">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -561,6 +561,21 @@
   </si>
   <si>
     <t>000528201557</t>
+  </si>
+  <si>
+    <t>0190078120</t>
+  </si>
+  <si>
+    <t>Huber, Louis</t>
+  </si>
+  <si>
+    <t>Louis Huber</t>
+  </si>
+  <si>
+    <t>Maurer, Dr. Robert</t>
+  </si>
+  <si>
+    <t>Robert J. Maurer</t>
   </si>
 </sst>
 </file>
@@ -645,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -698,6 +713,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -981,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2120,6 +2147,49 @@
         <v>13</v>
       </c>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="20">
+        <v>312270324</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="24">
+        <v>121000358</v>
+      </c>
+      <c r="D54" s="24">
+        <v>441910852</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105A4402-E86A-4E04-899F-D13657F20AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C502EF78-A821-4CD7-91E9-6D02D2ECDA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32640" yWindow="2880" windowWidth="31580" windowHeight="19470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38460" yWindow="2130" windowWidth="34940" windowHeight="18410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="186">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -576,6 +576,24 @@
   </si>
   <si>
     <t>Robert J. Maurer</t>
+  </si>
+  <si>
+    <t>5300389989</t>
+  </si>
+  <si>
+    <t>Advanced Systems</t>
+  </si>
+  <si>
+    <t>031100102</t>
+  </si>
+  <si>
+    <t>209545797</t>
+  </si>
+  <si>
+    <t>Neptune and Co., Inc</t>
+  </si>
+  <si>
+    <t>132912710</t>
   </si>
 </sst>
 </file>
@@ -660,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -713,18 +731,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1008,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1886,8 +1892,8 @@
       <c r="B40" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>67</v>
+      <c r="C40" s="13">
+        <v>307074535</v>
       </c>
       <c r="D40" s="13">
         <v>999353940</v>
@@ -1949,8 +1955,8 @@
       <c r="C43" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="14">
-        <v>5300389989</v>
+      <c r="D43" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -2148,7 +2154,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="14" t="s">
         <v>176</v>
       </c>
       <c r="B53" s="18" t="s">
@@ -2171,22 +2177,68 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="20">
         <v>121000358</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="20">
         <v>441910852</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="20">
+        <v>102001017</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="19" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C502EF78-A821-4CD7-91E9-6D02D2ECDA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA8F27-95F1-40FB-9280-46E1EB4247F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38460" yWindow="2130" windowWidth="34940" windowHeight="18410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1630" yWindow="2650" windowWidth="34170" windowHeight="18050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="193">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -449,12 +449,6 @@
     <t>C. Nissley Env Consultants, Inc</t>
   </si>
   <si>
-    <t>dr. Covella</t>
-  </si>
-  <si>
-    <t>Dr. Vincent Covello</t>
-  </si>
-  <si>
     <t>072000805</t>
   </si>
   <si>
@@ -594,6 +588,33 @@
   </si>
   <si>
     <t>132912710</t>
+  </si>
+  <si>
+    <t>Candelaria, Robert</t>
+  </si>
+  <si>
+    <t>1090000031959</t>
+  </si>
+  <si>
+    <t>ZeroSudz</t>
+  </si>
+  <si>
+    <t>Foxall</t>
+  </si>
+  <si>
+    <t>Eurofins</t>
+  </si>
+  <si>
+    <t>1304596081</t>
+  </si>
+  <si>
+    <t>125008547</t>
+  </si>
+  <si>
+    <t>052001633</t>
+  </si>
+  <si>
+    <t>446042400361</t>
   </si>
 </sst>
 </file>
@@ -643,7 +664,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,6 +674,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -733,6 +760,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1717,16 +1750,16 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="22" t="s">
         <v>114</v>
       </c>
       <c r="E32" s="12" t="s">
@@ -1907,16 +1940,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="13">
-        <v>999176597</v>
+      <c r="D41" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -1927,16 +1960,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>142</v>
+        <v>67</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -1946,17 +1979,17 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B43" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>67</v>
+      <c r="C43" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -1966,108 +1999,108 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B44" t="s">
-        <v>146</v>
+      <c r="A44" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="14">
+        <v>711413526</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>148</v>
       </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="15" t="s">
+      <c r="B45" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="14">
-        <v>711413526</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="16"/>
+      <c r="C45" s="14">
+        <v>102001017</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G45" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C46" s="14">
-        <v>102001017</v>
+        <v>314089681</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="16"/>
       <c r="G46" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="14">
-        <v>314089681</v>
+        <v>155</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="14" t="s">
+      <c r="A48" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="B48" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>50</v>
+      <c r="C48" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
@@ -2075,36 +2108,36 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>10</v>
@@ -2114,17 +2147,17 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="19" t="s">
+      <c r="A51" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="B51" s="14" t="s">
         <v>170</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>10</v>
@@ -2135,19 +2168,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C52" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="20">
+        <v>312270324</v>
+      </c>
+      <c r="D52" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D52" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>10</v>
+      <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="G52" s="19" t="s">
         <v>13</v>
@@ -2157,20 +2193,17 @@
       <c r="A53" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="14" t="s">
         <v>177</v>
       </c>
       <c r="C53" s="20">
-        <v>312270324</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>50</v>
+        <v>121000358</v>
+      </c>
+      <c r="D53" s="20">
+        <v>441910852</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>13</v>
@@ -2178,19 +2211,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B54" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="20">
-        <v>121000358</v>
-      </c>
-      <c r="D54" s="20">
-        <v>441910852</v>
+      <c r="B54" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>10</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="G54" s="19" t="s">
         <v>13</v>
@@ -2198,13 +2234,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C55" s="20" t="s">
         <v>182</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="20">
+        <v>102001017</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>183</v>
@@ -2227,18 +2263,78 @@
         <v>184</v>
       </c>
       <c r="C56" s="20">
-        <v>102001017</v>
+        <v>307083678</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="16" t="s">
-        <v>10</v>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G56" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="20">
+        <v>38996675</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="19" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA8F27-95F1-40FB-9280-46E1EB4247F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBF1562-73FB-415A-BF7A-79E473746EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1630" yWindow="2650" windowWidth="34170" windowHeight="18050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38950" yWindow="1460" windowWidth="30650" windowHeight="19010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBF1562-73FB-415A-BF7A-79E473746EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6F1B4B-E570-4426-B1BD-40F5ACED54FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38950" yWindow="1460" windowWidth="30650" windowHeight="19010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="980" windowWidth="31840" windowHeight="18050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="196">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -596,9 +596,6 @@
     <t>1090000031959</t>
   </si>
   <si>
-    <t>ZeroSudz</t>
-  </si>
-  <si>
     <t>Foxall</t>
   </si>
   <si>
@@ -615,6 +612,18 @@
   </si>
   <si>
     <t>446042400361</t>
+  </si>
+  <si>
+    <t>SudZero</t>
+  </si>
+  <si>
+    <t>Hebert, K</t>
+  </si>
+  <si>
+    <t>Kurt Hebert</t>
+  </si>
+  <si>
+    <t>836811711</t>
   </si>
 </sst>
 </file>
@@ -1047,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2280,16 +2289,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C57" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="20" t="s">
         <v>191</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>192</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>10</v>
@@ -2303,27 +2312,30 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>10</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>83</v>
@@ -2335,6 +2347,29 @@
         <v>10</v>
       </c>
       <c r="G59" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="20">
+        <v>253278401</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="19" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6F1B4B-E570-4426-B1BD-40F5ACED54FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E65735-7D6B-42D0-A8C9-980AFBEA2318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="980" windowWidth="31840" windowHeight="18050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="30" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -611,9 +611,6 @@
     <t>052001633</t>
   </si>
   <si>
-    <t>446042400361</t>
-  </si>
-  <si>
     <t>SudZero</t>
   </si>
   <si>
@@ -624,6 +621,9 @@
   </si>
   <si>
     <t>836811711</t>
+  </si>
+  <si>
+    <t>446056494897</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -775,6 +775,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2289,16 +2295,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D57" s="20" t="s">
-        <v>191</v>
+      <c r="D57" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>10</v>
@@ -2320,7 +2326,7 @@
       <c r="C58" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="24" t="s">
         <v>188</v>
       </c>
       <c r="E58" s="16" t="s">
@@ -2352,16 +2358,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>194</v>
       </c>
       <c r="C60" s="20">
         <v>253278401</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\ACH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E65735-7D6B-42D0-A8C9-980AFBEA2318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E084FE9-7428-4D19-8D8C-52D17E743344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="30" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1570" yWindow="1210" windowWidth="36170" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="223">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -356,9 +356,6 @@
     <t>1470014966854</t>
   </si>
   <si>
-    <t>Ryan, Michele</t>
-  </si>
-  <si>
     <t>Michele Ryan</t>
   </si>
   <si>
@@ -482,9 +479,6 @@
     <t>DARR EQUIPMENT CO.</t>
   </si>
   <si>
-    <t>Suggs, Mark</t>
-  </si>
-  <si>
     <t>Mark Suggs</t>
   </si>
   <si>
@@ -624,13 +618,100 @@
   </si>
   <si>
     <t>446056494897</t>
+  </si>
+  <si>
+    <t>Deltek</t>
+  </si>
+  <si>
+    <t>Deltek Inc</t>
+  </si>
+  <si>
+    <t>Gorirossi, J.</t>
+  </si>
+  <si>
+    <t>Joseph Gorirossi</t>
+  </si>
+  <si>
+    <t>043000096</t>
+  </si>
+  <si>
+    <t>1043151495</t>
+  </si>
+  <si>
+    <t>HPP</t>
+  </si>
+  <si>
+    <t>HPP Corp</t>
+  </si>
+  <si>
+    <t>701332488</t>
+  </si>
+  <si>
+    <t>The Tarp Depot, Inc</t>
+  </si>
+  <si>
+    <t>071006486</t>
+  </si>
+  <si>
+    <t>1066668</t>
+  </si>
+  <si>
+    <t>James Reed &amp; Associa</t>
+  </si>
+  <si>
+    <t>SUGGS</t>
+  </si>
+  <si>
+    <t>Ryan, Michelle</t>
+  </si>
+  <si>
+    <t>061000104</t>
+  </si>
+  <si>
+    <t>502151987</t>
+  </si>
+  <si>
+    <t>Reising</t>
+  </si>
+  <si>
+    <t>041000124</t>
+  </si>
+  <si>
+    <t>Mark Reising</t>
+  </si>
+  <si>
+    <t>Cekov</t>
+  </si>
+  <si>
+    <t>Ivan Cekov</t>
+  </si>
+  <si>
+    <t>800000115975</t>
+  </si>
+  <si>
+    <t>TEKLAB</t>
+  </si>
+  <si>
+    <t>071921891</t>
+  </si>
+  <si>
+    <t>4602418218</t>
+  </si>
+  <si>
+    <t>UniFirst</t>
+  </si>
+  <si>
+    <t>011000138</t>
+  </si>
+  <si>
+    <t>000054608762</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,6 +748,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -779,8 +867,8 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,15 +1150,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.54296875" customWidth="1"/>
@@ -1720,16 +1808,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="C30" s="2">
         <v>322271627</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
@@ -1743,16 +1831,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>9</v>
@@ -1766,16 +1854,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>114</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>10</v>
@@ -1787,16 +1875,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>10</v>
@@ -1808,16 +1896,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>10</v>
@@ -1829,16 +1917,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>10</v>
@@ -1850,16 +1938,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>10</v>
@@ -1871,16 +1959,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>10</v>
@@ -1892,16 +1980,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>133</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>9</v>
@@ -1915,13 +2003,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="13">
         <v>897980956</v>
@@ -1935,10 +2023,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
         <v>135</v>
-      </c>
-      <c r="B40" t="s">
-        <v>136</v>
       </c>
       <c r="C40" s="13">
         <v>307074535</v>
@@ -1955,16 +2043,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
         <v>138</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -1975,16 +2063,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" t="s">
         <v>141</v>
       </c>
-      <c r="B42" t="s">
-        <v>142</v>
-      </c>
       <c r="C42" s="13" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -1995,16 +2083,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
         <v>143</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="D43" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -2015,10 +2103,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>61</v>
@@ -2036,16 +2124,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C45" s="14">
         <v>102001017</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>9</v>
@@ -2059,16 +2147,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C46" s="14">
         <v>314089681</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>10</v>
@@ -2080,16 +2168,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>157</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>9</v>
@@ -2103,16 +2191,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="D48" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>161</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>10</v>
@@ -2123,16 +2211,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>10</v>
@@ -2143,16 +2231,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="D50" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>168</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>10</v>
@@ -2163,16 +2251,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="D51" s="20" t="s">
         <v>170</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>172</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>10</v>
@@ -2183,16 +2271,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C52" s="20">
         <v>312270324</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>9</v>
@@ -2206,10 +2294,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C53" s="20">
         <v>121000358</v>
@@ -2226,16 +2314,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>179</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>181</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>10</v>
@@ -2249,16 +2337,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C55" s="20">
         <v>102001017</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>10</v>
@@ -2272,16 +2360,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C56" s="20">
         <v>307083678</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>9</v>
@@ -2295,16 +2383,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>10</v>
@@ -2318,16 +2406,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>186</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>10</v>
@@ -2338,10 +2426,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>83</v>
@@ -2358,16 +2446,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C60" s="20">
         <v>253278401</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
@@ -2376,6 +2464,189 @@
         <v>50</v>
       </c>
       <c r="G60" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="20">
+        <v>121000248</v>
+      </c>
+      <c r="D61" s="20">
+        <v>4053613691</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>10784</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" t="s">
+        <v>213</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="20">
+        <v>4207723933</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" s="20">
+        <v>322280993</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="19" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/raw/ACH/ACH_Receivers.xlsx
+++ b/data/raw/ACH/ACH_Receivers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\ACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E084FE9-7428-4D19-8D8C-52D17E743344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5147974C-7A53-4F83-B62E-9E053459857B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1570" yWindow="1210" windowWidth="36170" windowHeight="18630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24680" yWindow="1590" windowWidth="32570" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="246">
   <si>
     <t>Vendor ID</t>
   </si>
@@ -143,568 +143,637 @@
     <t>632688081</t>
   </si>
   <si>
+    <t>Heritage-Crystal Clean, LLC</t>
+  </si>
+  <si>
+    <t>8666314757</t>
+  </si>
+  <si>
+    <t>MATHESON TRI-GAS INC.</t>
+  </si>
+  <si>
+    <t>111000025</t>
+  </si>
+  <si>
+    <t>0187161714</t>
+  </si>
+  <si>
+    <t>EU798</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HA43817</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HAZTRA</t>
+  </si>
+  <si>
+    <t>055003201</t>
+  </si>
+  <si>
+    <t>5570027048</t>
+  </si>
+  <si>
+    <t>054000030</t>
+  </si>
+  <si>
+    <t>Czysz 2</t>
+  </si>
+  <si>
+    <t>Tim and Jodelle</t>
+  </si>
+  <si>
+    <t>HazTrain</t>
+  </si>
+  <si>
+    <t>Spheeris</t>
+  </si>
+  <si>
+    <t>Paula Spheeris</t>
+  </si>
+  <si>
+    <t>McCrea</t>
+  </si>
+  <si>
+    <t>Joshua A McCrea</t>
+  </si>
+  <si>
+    <t>Sonnier, Eddie</t>
+  </si>
+  <si>
+    <t>Eddie Sonnier</t>
+  </si>
+  <si>
+    <t>313085288</t>
+  </si>
+  <si>
+    <t>97211363099</t>
+  </si>
+  <si>
+    <t>263178070</t>
+  </si>
+  <si>
+    <t>0005919111</t>
+  </si>
+  <si>
+    <t>111000614</t>
+  </si>
+  <si>
+    <t>511197795</t>
+  </si>
+  <si>
+    <t>3460 Rockefeller Ct.</t>
+  </si>
+  <si>
+    <t>Tim Czysz Rent</t>
+  </si>
+  <si>
+    <t>Republic</t>
+  </si>
+  <si>
+    <t>Republic Services</t>
+  </si>
+  <si>
+    <t>121000248</t>
+  </si>
+  <si>
+    <t>New Pig</t>
+  </si>
+  <si>
+    <t>362198604</t>
+  </si>
+  <si>
+    <t>5053406</t>
+  </si>
+  <si>
+    <t>613027</t>
+  </si>
+  <si>
+    <t>031301422</t>
+  </si>
+  <si>
+    <t>Instructure</t>
+  </si>
+  <si>
+    <t>122400724</t>
+  </si>
+  <si>
+    <t>501014797798</t>
+  </si>
+  <si>
+    <t>CareFirst BlueCross BlueShield</t>
+  </si>
+  <si>
+    <t>4697197994</t>
+  </si>
+  <si>
+    <t>Republic Services #855</t>
+  </si>
+  <si>
+    <t>4140909680</t>
+  </si>
+  <si>
+    <t>SGS North America, Inc</t>
+  </si>
+  <si>
+    <t>031100209</t>
+  </si>
+  <si>
+    <t>38805189</t>
+  </si>
+  <si>
+    <t>HYG Financial Services Inc</t>
+  </si>
+  <si>
+    <t>4175553981</t>
+  </si>
+  <si>
+    <t>Fit For Everybody</t>
+  </si>
+  <si>
+    <t>121140399</t>
+  </si>
+  <si>
+    <t>3303548019</t>
+  </si>
+  <si>
+    <t>ID Discovery, Inc</t>
+  </si>
+  <si>
+    <t>031309123</t>
+  </si>
+  <si>
+    <t>1390024725665</t>
+  </si>
+  <si>
+    <t>Graves, S</t>
+  </si>
+  <si>
+    <t>ID Discovery</t>
+  </si>
+  <si>
+    <t>Intergulf Corp</t>
+  </si>
+  <si>
+    <t>Shelby Graves</t>
+  </si>
+  <si>
+    <t>055002707</t>
+  </si>
+  <si>
+    <t>003748067</t>
+  </si>
+  <si>
+    <t>Czysz</t>
+  </si>
+  <si>
+    <t>Tim expenses</t>
+  </si>
+  <si>
+    <t>Tannenbaum</t>
+  </si>
+  <si>
+    <t>Jordan E. Tannenbaum</t>
+  </si>
+  <si>
+    <t>051404260</t>
+  </si>
+  <si>
+    <t>1470014966854</t>
+  </si>
+  <si>
+    <t>Michele Ryan</t>
+  </si>
+  <si>
+    <t>923060800</t>
+  </si>
+  <si>
+    <t>Nissley, Pete</t>
+  </si>
+  <si>
+    <t>Pete Nissley</t>
+  </si>
+  <si>
+    <t>312270463</t>
+  </si>
+  <si>
+    <t>0333040692</t>
+  </si>
+  <si>
+    <t>021000021</t>
+  </si>
+  <si>
+    <t>999176597</t>
+  </si>
+  <si>
+    <t>Aramsco</t>
+  </si>
+  <si>
+    <t>Bhate</t>
+  </si>
+  <si>
+    <t>Dalmation</t>
+  </si>
+  <si>
+    <t>Meridian Analytical</t>
+  </si>
+  <si>
+    <t>072000326</t>
+  </si>
+  <si>
+    <t>897980956</t>
+  </si>
+  <si>
+    <t>2014154951691</t>
+  </si>
+  <si>
+    <t>062000019</t>
+  </si>
+  <si>
+    <t>0300772631</t>
+  </si>
+  <si>
+    <t>101100579</t>
+  </si>
+  <si>
+    <t>74718533</t>
+  </si>
+  <si>
+    <t>107001232</t>
+  </si>
+  <si>
+    <t>3100010939</t>
+  </si>
+  <si>
+    <t>Alliance Technical Group</t>
+  </si>
+  <si>
+    <t>Dr. Covello</t>
+  </si>
+  <si>
+    <t>Braddock</t>
+  </si>
+  <si>
+    <t>Rachel Braddock</t>
+  </si>
+  <si>
+    <t>313084674</t>
+  </si>
+  <si>
+    <t>14983102</t>
+  </si>
+  <si>
+    <t>Alliance Tech Group</t>
+  </si>
+  <si>
+    <t>C. Nissley Env</t>
+  </si>
+  <si>
+    <t>C. Nissley Env Consultants, Inc</t>
+  </si>
+  <si>
+    <t>072000805</t>
+  </si>
+  <si>
+    <t>Eventure HR</t>
+  </si>
+  <si>
+    <t>Eventure HR, LLC</t>
+  </si>
+  <si>
+    <t>375026823349</t>
+  </si>
+  <si>
+    <t>James T Warring Sons</t>
+  </si>
+  <si>
+    <t>James T Warring Sons Inc</t>
+  </si>
+  <si>
+    <t>BioLargo</t>
+  </si>
+  <si>
+    <t>064000020</t>
+  </si>
+  <si>
+    <t>444020289001</t>
+  </si>
+  <si>
+    <t>DARR EQUIPMENT CO.</t>
+  </si>
+  <si>
+    <t>Mark Suggs</t>
+  </si>
+  <si>
+    <t>478018771</t>
+  </si>
+  <si>
+    <t>Porteck, Kevin</t>
+  </si>
+  <si>
+    <t>Kevin Porteck</t>
+  </si>
+  <si>
+    <t>41243637</t>
+  </si>
+  <si>
+    <t>Harris, Tom</t>
+  </si>
+  <si>
+    <t>Tom Harris</t>
+  </si>
+  <si>
+    <t>055003308</t>
+  </si>
+  <si>
+    <t>0005256334307</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>Eastern Lift Truck Co., Inc.</t>
+  </si>
+  <si>
+    <t>036076150</t>
+  </si>
+  <si>
+    <t>6230285804</t>
+  </si>
+  <si>
+    <t>GFL ENVIRONMENTAL</t>
+  </si>
+  <si>
+    <t>GFL Plant Services LP</t>
+  </si>
+  <si>
+    <t>525193087</t>
+  </si>
+  <si>
+    <t>Lighting Resources</t>
+  </si>
+  <si>
+    <t>Lighting Resources, LLC</t>
+  </si>
+  <si>
+    <t>122243774</t>
+  </si>
+  <si>
+    <t>2030623254</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>Peter Robinson</t>
+  </si>
+  <si>
+    <t>121000358</t>
+  </si>
+  <si>
+    <t>000528201557</t>
+  </si>
+  <si>
+    <t>0190078120</t>
+  </si>
+  <si>
+    <t>Huber, Louis</t>
+  </si>
+  <si>
+    <t>Louis Huber</t>
+  </si>
+  <si>
+    <t>Maurer, Dr. Robert</t>
+  </si>
+  <si>
+    <t>Robert J. Maurer</t>
+  </si>
+  <si>
+    <t>5300389989</t>
+  </si>
+  <si>
+    <t>Advanced Systems</t>
+  </si>
+  <si>
+    <t>031100102</t>
+  </si>
+  <si>
+    <t>209545797</t>
+  </si>
+  <si>
+    <t>Neptune and Co., Inc</t>
+  </si>
+  <si>
+    <t>132912710</t>
+  </si>
+  <si>
+    <t>Candelaria, Robert</t>
+  </si>
+  <si>
+    <t>1090000031959</t>
+  </si>
+  <si>
+    <t>Foxall</t>
+  </si>
+  <si>
+    <t>Eurofins</t>
+  </si>
+  <si>
+    <t>1304596081</t>
+  </si>
+  <si>
+    <t>125008547</t>
+  </si>
+  <si>
+    <t>052001633</t>
+  </si>
+  <si>
+    <t>SudZero</t>
+  </si>
+  <si>
+    <t>Hebert, K</t>
+  </si>
+  <si>
+    <t>Kurt Hebert</t>
+  </si>
+  <si>
+    <t>836811711</t>
+  </si>
+  <si>
+    <t>446056494897</t>
+  </si>
+  <si>
+    <t>Deltek</t>
+  </si>
+  <si>
+    <t>Deltek Inc</t>
+  </si>
+  <si>
+    <t>Gorirossi, J.</t>
+  </si>
+  <si>
+    <t>Joseph Gorirossi</t>
+  </si>
+  <si>
+    <t>043000096</t>
+  </si>
+  <si>
+    <t>1043151495</t>
+  </si>
+  <si>
+    <t>HPP</t>
+  </si>
+  <si>
+    <t>HPP Corp</t>
+  </si>
+  <si>
+    <t>701332488</t>
+  </si>
+  <si>
+    <t>The Tarp Depot, Inc</t>
+  </si>
+  <si>
+    <t>071006486</t>
+  </si>
+  <si>
+    <t>1066668</t>
+  </si>
+  <si>
+    <t>James Reed &amp; Associa</t>
+  </si>
+  <si>
+    <t>SUGGS</t>
+  </si>
+  <si>
+    <t>061000104</t>
+  </si>
+  <si>
+    <t>Reising</t>
+  </si>
+  <si>
+    <t>041000124</t>
+  </si>
+  <si>
+    <t>Mark Reising</t>
+  </si>
+  <si>
+    <t>Cekov</t>
+  </si>
+  <si>
+    <t>Ivan Cekov</t>
+  </si>
+  <si>
+    <t>800000115975</t>
+  </si>
+  <si>
+    <t>TEKLAB</t>
+  </si>
+  <si>
+    <t>071921891</t>
+  </si>
+  <si>
+    <t>4602418218</t>
+  </si>
+  <si>
+    <t>UniFirst</t>
+  </si>
+  <si>
+    <t>011000138</t>
+  </si>
+  <si>
+    <t>000054608762</t>
+  </si>
+  <si>
+    <t>Tyson</t>
+  </si>
+  <si>
+    <t>Tyson, Robert</t>
+  </si>
+  <si>
+    <t>7045270159</t>
+  </si>
+  <si>
+    <t>Wells Fargo EF</t>
+  </si>
+  <si>
+    <t>0000204086728</t>
+  </si>
+  <si>
+    <t>BioLargo Engineering Science&amp;Tech, LLC</t>
+  </si>
+  <si>
+    <t>Dr. Vincent Covello</t>
+  </si>
+  <si>
+    <t>Bezehnje Oliver Leke</t>
+  </si>
+  <si>
+    <t>9036393024</t>
+  </si>
+  <si>
+    <t>0000010313</t>
+  </si>
+  <si>
     <t>Crystal Clean</t>
   </si>
   <si>
-    <t>Heritage-Crystal Clean, LLC</t>
-  </si>
-  <si>
-    <t>8666314757</t>
-  </si>
-  <si>
-    <t>MATHESON TRI-GAS</t>
-  </si>
-  <si>
-    <t>MATHESON TRI-GAS INC.</t>
-  </si>
-  <si>
-    <t>111000025</t>
-  </si>
-  <si>
-    <t>0187161714</t>
-  </si>
-  <si>
-    <t>EU798</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HA43817</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HAZTRA</t>
-  </si>
-  <si>
-    <t>055003201</t>
-  </si>
-  <si>
-    <t>5570027048</t>
-  </si>
-  <si>
-    <t>054000030</t>
-  </si>
-  <si>
-    <t>Czysz 2</t>
-  </si>
-  <si>
-    <t>Tim and Jodelle</t>
-  </si>
-  <si>
-    <t>HazTrain</t>
-  </si>
-  <si>
-    <t>Spheeris</t>
-  </si>
-  <si>
-    <t>Paula Spheeris</t>
-  </si>
-  <si>
-    <t>McCrea</t>
-  </si>
-  <si>
-    <t>Joshua A McCrea</t>
-  </si>
-  <si>
-    <t>Sonnier, Eddie</t>
-  </si>
-  <si>
-    <t>Eddie Sonnier</t>
-  </si>
-  <si>
-    <t>313085288</t>
-  </si>
-  <si>
-    <t>97211363099</t>
-  </si>
-  <si>
-    <t>263178070</t>
-  </si>
-  <si>
-    <t>0005919111</t>
-  </si>
-  <si>
-    <t>111000614</t>
-  </si>
-  <si>
-    <t>511197795</t>
-  </si>
-  <si>
-    <t>3460 Rockefeller Ct.</t>
-  </si>
-  <si>
-    <t>Tim Czysz Rent</t>
-  </si>
-  <si>
-    <t>Republic</t>
-  </si>
-  <si>
-    <t>Republic Services</t>
-  </si>
-  <si>
-    <t>121000248</t>
-  </si>
-  <si>
-    <t>New Pig</t>
-  </si>
-  <si>
-    <t>362198604</t>
-  </si>
-  <si>
-    <t>5053406</t>
-  </si>
-  <si>
-    <t>613027</t>
-  </si>
-  <si>
-    <t>031301422</t>
-  </si>
-  <si>
-    <t>Instructure</t>
-  </si>
-  <si>
-    <t>122400724</t>
-  </si>
-  <si>
-    <t>501014797798</t>
-  </si>
-  <si>
-    <t>CareFirst BlueCross</t>
-  </si>
-  <si>
-    <t>CareFirst BlueCross BlueShield</t>
-  </si>
-  <si>
-    <t>4697197994</t>
-  </si>
-  <si>
-    <t>Republic Services #855</t>
-  </si>
-  <si>
-    <t>4140909680</t>
-  </si>
-  <si>
-    <t>SGS</t>
-  </si>
-  <si>
-    <t>SGS North America, Inc</t>
-  </si>
-  <si>
-    <t>031100209</t>
-  </si>
-  <si>
-    <t>38805189</t>
-  </si>
-  <si>
-    <t>HYG Financial Services Inc</t>
-  </si>
-  <si>
-    <t>4175553981</t>
-  </si>
-  <si>
-    <t>Fit For Everybody</t>
-  </si>
-  <si>
-    <t>121140399</t>
-  </si>
-  <si>
-    <t>3303548019</t>
-  </si>
-  <si>
-    <t>ID Discovery, Inc</t>
-  </si>
-  <si>
-    <t>031309123</t>
-  </si>
-  <si>
-    <t>1390024725665</t>
-  </si>
-  <si>
-    <t>Materials Handling</t>
-  </si>
-  <si>
-    <t>Graves, S</t>
-  </si>
-  <si>
-    <t>ID Discovery</t>
-  </si>
-  <si>
-    <t>Intergulf Corp</t>
-  </si>
-  <si>
-    <t>Shelby Graves</t>
-  </si>
-  <si>
-    <t>055002707</t>
-  </si>
-  <si>
-    <t>003748067</t>
-  </si>
-  <si>
-    <t>Czysz</t>
-  </si>
-  <si>
-    <t>Tim expenses</t>
-  </si>
-  <si>
-    <t>Tannenbaum</t>
-  </si>
-  <si>
-    <t>Jordan E. Tannenbaum</t>
-  </si>
-  <si>
-    <t>051404260</t>
-  </si>
-  <si>
-    <t>1470014966854</t>
-  </si>
-  <si>
-    <t>Michele Ryan</t>
-  </si>
-  <si>
-    <t>923060800</t>
-  </si>
-  <si>
-    <t>Nissley, Pete</t>
-  </si>
-  <si>
-    <t>Pete Nissley</t>
-  </si>
-  <si>
-    <t>312270463</t>
-  </si>
-  <si>
-    <t>0333040692</t>
-  </si>
-  <si>
-    <t>021000021</t>
-  </si>
-  <si>
-    <t>999176597</t>
-  </si>
-  <si>
-    <t>Aramsco</t>
-  </si>
-  <si>
-    <t>Bhate</t>
-  </si>
-  <si>
-    <t>Dalmation</t>
-  </si>
-  <si>
-    <t>Meridian Analytical</t>
-  </si>
-  <si>
-    <t>072000326</t>
-  </si>
-  <si>
-    <t>897980956</t>
-  </si>
-  <si>
-    <t>2014154951691</t>
-  </si>
-  <si>
-    <t>062000019</t>
-  </si>
-  <si>
-    <t>0300772631</t>
-  </si>
-  <si>
-    <t>101100579</t>
-  </si>
-  <si>
-    <t>74718533</t>
-  </si>
-  <si>
-    <t>107001232</t>
-  </si>
-  <si>
-    <t>3100010939</t>
-  </si>
-  <si>
-    <t>Alliance Technical Group</t>
-  </si>
-  <si>
-    <t>Dr. Covello</t>
-  </si>
-  <si>
-    <t>Braddock</t>
-  </si>
-  <si>
-    <t>Rachel Braddock</t>
-  </si>
-  <si>
-    <t>313084674</t>
-  </si>
-  <si>
-    <t>14983102</t>
-  </si>
-  <si>
-    <t>Alliance Tech Group</t>
-  </si>
-  <si>
-    <t>C. Nissley Env</t>
-  </si>
-  <si>
-    <t>C. Nissley Env Consultants, Inc</t>
-  </si>
-  <si>
-    <t>072000805</t>
-  </si>
-  <si>
-    <t>Eventure HR</t>
-  </si>
-  <si>
-    <t>Eventure HR, LLC</t>
-  </si>
-  <si>
-    <t>375026823349</t>
-  </si>
-  <si>
-    <t>James T Warring Sons</t>
-  </si>
-  <si>
-    <t>James T Warring Sons Inc</t>
-  </si>
-  <si>
-    <t>BIOLARGO</t>
-  </si>
-  <si>
-    <t>BioLargo</t>
-  </si>
-  <si>
-    <t>064000020</t>
-  </si>
-  <si>
-    <t>444020289001</t>
-  </si>
-  <si>
-    <t>DARR EQUIPMENT CO.</t>
-  </si>
-  <si>
-    <t>Mark Suggs</t>
-  </si>
-  <si>
-    <t>478018771</t>
-  </si>
-  <si>
-    <t>Porteck, Kevin</t>
-  </si>
-  <si>
-    <t>Kevin Porteck</t>
-  </si>
-  <si>
-    <t>41243637</t>
-  </si>
-  <si>
-    <t>Harris, Tom</t>
-  </si>
-  <si>
-    <t>Tom Harris</t>
-  </si>
-  <si>
-    <t>055003308</t>
-  </si>
-  <si>
-    <t>0005256334307</t>
-  </si>
-  <si>
-    <t>Eastern</t>
-  </si>
-  <si>
-    <t>Eastern Lift Truck Co., Inc.</t>
-  </si>
-  <si>
-    <t>036076150</t>
-  </si>
-  <si>
-    <t>6230285804</t>
-  </si>
-  <si>
-    <t>GFL ENVIRONMENTAL</t>
-  </si>
-  <si>
-    <t>GFL Plant Services LP</t>
-  </si>
-  <si>
-    <t>525193087</t>
-  </si>
-  <si>
-    <t>Lighting Resources</t>
-  </si>
-  <si>
-    <t>Lighting Resources, LLC</t>
-  </si>
-  <si>
-    <t>122243774</t>
-  </si>
-  <si>
-    <t>2030623254</t>
-  </si>
-  <si>
-    <t>Robinson</t>
-  </si>
-  <si>
-    <t>Peter Robinson</t>
-  </si>
-  <si>
-    <t>121000358</t>
-  </si>
-  <si>
-    <t>000528201557</t>
-  </si>
-  <si>
-    <t>0190078120</t>
-  </si>
-  <si>
-    <t>Huber, Louis</t>
-  </si>
-  <si>
-    <t>Louis Huber</t>
-  </si>
-  <si>
-    <t>Maurer, Dr. Robert</t>
-  </si>
-  <si>
-    <t>Robert J. Maurer</t>
-  </si>
-  <si>
-    <t>5300389989</t>
-  </si>
-  <si>
-    <t>Advanced Systems</t>
-  </si>
-  <si>
-    <t>031100102</t>
-  </si>
-  <si>
-    <t>209545797</t>
-  </si>
-  <si>
-    <t>Neptune and Co., Inc</t>
-  </si>
-  <si>
-    <t>132912710</t>
-  </si>
-  <si>
-    <t>Candelaria, Robert</t>
-  </si>
-  <si>
-    <t>1090000031959</t>
-  </si>
-  <si>
-    <t>Foxall</t>
-  </si>
-  <si>
-    <t>Eurofins</t>
-  </si>
-  <si>
-    <t>1304596081</t>
-  </si>
-  <si>
-    <t>125008547</t>
-  </si>
-  <si>
-    <t>052001633</t>
-  </si>
-  <si>
-    <t>SudZero</t>
-  </si>
-  <si>
-    <t>Hebert, K</t>
-  </si>
-  <si>
-    <t>Kurt Hebert</t>
-  </si>
-  <si>
-    <t>836811711</t>
-  </si>
-  <si>
-    <t>446056494897</t>
-  </si>
-  <si>
-    <t>Deltek</t>
-  </si>
-  <si>
-    <t>Deltek Inc</t>
-  </si>
-  <si>
-    <t>Gorirossi, J.</t>
-  </si>
-  <si>
-    <t>Joseph Gorirossi</t>
-  </si>
-  <si>
-    <t>043000096</t>
-  </si>
-  <si>
-    <t>1043151495</t>
-  </si>
-  <si>
-    <t>HPP</t>
-  </si>
-  <si>
-    <t>HPP Corp</t>
-  </si>
-  <si>
-    <t>701332488</t>
-  </si>
-  <si>
-    <t>The Tarp Depot, Inc</t>
-  </si>
-  <si>
-    <t>071006486</t>
-  </si>
-  <si>
-    <t>1066668</t>
-  </si>
-  <si>
-    <t>James Reed &amp; Associa</t>
-  </si>
-  <si>
-    <t>SUGGS</t>
-  </si>
-  <si>
-    <t>Ryan, Michelle</t>
-  </si>
-  <si>
-    <t>061000104</t>
-  </si>
-  <si>
-    <t>502151987</t>
-  </si>
-  <si>
-    <t>Reising</t>
-  </si>
-  <si>
-    <t>041000124</t>
-  </si>
-  <si>
-    <t>Mark Reising</t>
-  </si>
-  <si>
-    <t>Cekov</t>
-  </si>
-  <si>
-    <t>Ivan Cekov</t>
-  </si>
-  <si>
-    <t>800000115975</t>
-  </si>
-  <si>
-    <t>TEKLAB</t>
-  </si>
-  <si>
-    <t>071921891</t>
-  </si>
-  <si>
-    <t>4602418218</t>
-  </si>
-  <si>
-    <t>UniFirst</t>
-  </si>
-  <si>
-    <t>011000138</t>
-  </si>
-  <si>
-    <t>000054608762</t>
+    <t>American Hazmat Rent</t>
+  </si>
+  <si>
+    <t>Labelmaster</t>
+  </si>
+  <si>
+    <t>071926184</t>
+  </si>
+  <si>
+    <t>7595200180</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>SCHEFFER</t>
+  </si>
+  <si>
+    <t>7030141134</t>
+  </si>
+  <si>
+    <t>TurboGSA</t>
+  </si>
+  <si>
+    <t>043306855</t>
+  </si>
+  <si>
+    <t>8511768</t>
+  </si>
+  <si>
+    <t>TYSON</t>
+  </si>
+  <si>
+    <t>111321814</t>
+  </si>
+  <si>
+    <t>100240648</t>
+  </si>
+  <si>
+    <t>Evolve Media</t>
+  </si>
+  <si>
+    <t>Evolve</t>
+  </si>
+  <si>
+    <t>1470000334510</t>
+  </si>
+  <si>
+    <t>HYG Financial Services</t>
+  </si>
+  <si>
+    <t>Matheson Tri-Gas Inc</t>
+  </si>
+  <si>
+    <t>UniFirst Corporation</t>
+  </si>
+  <si>
+    <t>Michelle Ryan</t>
   </si>
 </sst>
 </file>
@@ -802,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -847,9 +916,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1150,15 +1216,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.54296875" customWidth="1"/>
@@ -1291,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -1320,7 +1386,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>28</v>
@@ -1335,7 +1401,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
@@ -1384,17 +1450,17 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1407,23 +1473,23 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1431,13 +1497,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2">
         <v>1576393308</v>
@@ -1446,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1454,22 +1520,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1477,22 +1543,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -1500,22 +1566,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -1523,22 +1589,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -1546,13 +1612,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D18" s="2">
         <v>4140909680</v>
@@ -1561,7 +1627,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -1569,22 +1635,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -1592,16 +1658,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>10</v>
@@ -1612,17 +1678,17 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>76</v>
+      <c r="A21" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>10</v>
@@ -1634,16 +1700,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>10</v>
@@ -1654,17 +1720,17 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>81</v>
+      <c r="A23" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>10</v>
@@ -1675,17 +1741,17 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
-        <v>93</v>
+      <c r="A24" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>10</v>
@@ -1697,16 +1763,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>10</v>
@@ -1718,16 +1784,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>10</v>
@@ -1739,22 +1805,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="E27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -1762,22 +1828,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -1785,45 +1851,45 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>208</v>
+      <c r="A30" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C30" s="2">
         <v>322271627</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -1831,39 +1897,39 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>113</v>
+      <c r="A32" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>10</v>
@@ -1875,16 +1941,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>10</v>
@@ -1896,16 +1962,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>10</v>
@@ -1916,17 +1982,17 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
-        <v>115</v>
+      <c r="A35" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>10</v>
@@ -1938,16 +2004,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>10</v>
@@ -1959,16 +2025,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>10</v>
@@ -1980,22 +2046,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
         <v>13</v>
@@ -2003,13 +2069,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D39" s="13">
         <v>897980956</v>
@@ -2023,10 +2089,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C40" s="13">
         <v>307074535</v>
@@ -2043,16 +2109,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -2063,16 +2129,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -2082,17 +2148,17 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
-        <v>142</v>
+      <c r="A43" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -2103,13 +2169,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D44" s="14">
         <v>711413526</v>
@@ -2124,22 +2190,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C45" s="14">
         <v>102001017</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>13</v>
@@ -2147,16 +2213,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C46" s="14">
         <v>314089681</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>10</v>
@@ -2168,316 +2234,316 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="E49" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="B50" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="C50" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="D50" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>166</v>
-      </c>
       <c r="E50" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G50" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>170</v>
+        <v>162</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" s="20">
+        <v>166</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="19">
         <v>312270324</v>
       </c>
-      <c r="D52" s="20" t="s">
-        <v>171</v>
+      <c r="D52" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C53" s="20">
+        <v>169</v>
+      </c>
+      <c r="C53" s="19">
         <v>121000358</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="19">
         <v>441910852</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="20">
+        <v>174</v>
+      </c>
+      <c r="C55" s="19">
         <v>102001017</v>
       </c>
-      <c r="D55" s="20" t="s">
-        <v>181</v>
+      <c r="D55" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="20">
+        <v>176</v>
+      </c>
+      <c r="C56" s="19">
         <v>307083678</v>
       </c>
-      <c r="D56" s="20" t="s">
-        <v>183</v>
+      <c r="D56" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>193</v>
+        <v>183</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G57" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>186</v>
+        <v>178</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="20">
+        <v>179</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="19">
         <v>38996675</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C60" s="20">
+        <v>185</v>
+      </c>
+      <c r="C60" s="19">
         <v>253278401</v>
       </c>
-      <c r="D60" s="20" t="s">
-        <v>192</v>
+      <c r="D60" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G60" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" s="20">
+        <v>189</v>
+      </c>
+      <c r="C61" s="19">
         <v>121000248</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="19">
         <v>4053613691</v>
       </c>
       <c r="E61" s="16" t="s">
@@ -2486,167 +2552,367 @@
       <c r="F61">
         <v>10784</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>199</v>
+        <v>191</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="G62" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>202</v>
+        <v>195</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="G63" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>205</v>
+        <v>197</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G64" s="19" t="s">
+      <c r="G64" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>210</v>
+      <c r="A65" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>219</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D66" s="20">
+        <v>205</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" s="19">
         <v>4207723933</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G66" s="19" t="s">
+      <c r="G66" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B67" t="s">
-        <v>215</v>
-      </c>
-      <c r="C67" s="20">
+        <v>207</v>
+      </c>
+      <c r="C67" s="19">
         <v>322280993</v>
       </c>
-      <c r="D67" s="20" t="s">
-        <v>216</v>
+      <c r="D67" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G67" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B68" t="s">
+      <c r="E70" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="19">
+        <v>121000248</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" s="19">
+        <v>256078446</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" s="19">
+        <v>1029033812</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>220</v>
-      </c>
-      <c r="B69" t="s">
-        <v>220</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="19" t="s">
+      <c r="E78" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="18" t="s">
         <v>13</v>
       </c>
     </row>
